--- a/Kotoba/bab3.xlsx
+++ b/Kotoba/bab3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alzan\OneDrive\Documents\kotoba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89448520-FD97-445E-A05C-0FA0783D9868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741B722D-8D90-44CC-9FCE-6B1497C59A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{6FE4A3BB-9089-43C8-B7BE-48D5DA9EE16A}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>どこ</t>
   </si>
   <si>
-    <t>Dimana, tempat apa?</t>
-  </si>
-  <si>
     <t>doko</t>
   </si>
   <si>
@@ -389,9 +386,6 @@
     <t>sana</t>
   </si>
   <si>
-    <t>sini, tempat ini, orang ini</t>
-  </si>
-  <si>
     <t>bentuk sopan dari そこ, dekat lawan bicara</t>
   </si>
   <si>
@@ -573,6 +567,12 @@
   </si>
   <si>
     <t>Arti</t>
+  </si>
+  <si>
+    <t>(di) mana</t>
+  </si>
+  <si>
+    <t>sini / orang ini</t>
   </si>
 </sst>
 </file>
@@ -980,7 +980,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -994,10 +994,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -1031,7 +1031,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -1048,7 +1048,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
@@ -1065,13 +1065,13 @@
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>4</v>
@@ -1079,84 +1079,84 @@
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
@@ -1164,16 +1164,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>4</v>
@@ -1181,16 +1181,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
@@ -1198,16 +1198,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>4</v>
@@ -1215,16 +1215,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -1232,16 +1232,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>4</v>
@@ -1249,16 +1249,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>4</v>
@@ -1266,16 +1266,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>4</v>
@@ -1283,16 +1283,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>4</v>
@@ -1300,16 +1300,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>4</v>
@@ -1317,16 +1317,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>4</v>
@@ -1334,16 +1334,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
@@ -1351,16 +1351,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" t="s">
         <v>132</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" t="s">
-        <v>134</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
@@ -1368,16 +1368,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>4</v>
@@ -1385,16 +1385,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>4</v>
@@ -1402,16 +1402,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>4</v>
@@ -1419,16 +1419,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>4</v>
@@ -1436,16 +1436,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>4</v>
@@ -1453,16 +1453,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>4</v>
@@ -1470,16 +1470,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>4</v>
@@ -1487,16 +1487,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>4</v>
@@ -1504,16 +1504,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>4</v>
@@ -1521,16 +1521,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>4</v>
@@ -1538,16 +1538,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>4</v>
@@ -1555,16 +1555,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>4</v>
@@ -1572,16 +1572,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>4</v>
@@ -1589,16 +1589,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>4</v>
@@ -1606,16 +1606,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>4</v>
@@ -1623,16 +1623,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>4</v>
@@ -1640,16 +1640,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>4</v>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>4</v>
@@ -1674,33 +1674,33 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="E41" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>4</v>
@@ -1708,16 +1708,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>4</v>
@@ -1725,16 +1725,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>4</v>
@@ -1742,16 +1742,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>4</v>
@@ -1759,16 +1759,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>4</v>
@@ -1776,16 +1776,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>4</v>
@@ -1793,16 +1793,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>4</v>
@@ -1810,16 +1810,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>4</v>
@@ -1827,16 +1827,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>4</v>
@@ -1844,19 +1844,19 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="D51" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
